--- a/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD\validatie_matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D8E00-6DE5-44B0-AEA5-26A014AAA007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC27D17-9789-4419-9C4A-F1E6B86AF1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3762,7 +3762,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3838,9 +3838,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5059,8 +5056,8 @@
   <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C494" sqref="C494"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A543" sqref="A543:A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5116,7 +5113,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="42">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5157,7 +5154,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5198,7 +5195,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5239,7 +5236,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5280,7 +5277,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5321,7 +5318,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5362,7 +5359,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5403,7 +5400,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5444,7 +5441,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5485,7 +5482,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -5526,7 +5523,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>2</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -5567,7 +5564,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>2</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -5608,7 +5605,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -5649,7 +5646,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5690,7 +5687,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="42">
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -5731,7 +5728,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -5772,7 +5769,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="42">
         <v>2</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -5813,7 +5810,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -5854,7 +5851,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
+      <c r="A20" s="43">
         <v>2</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -5895,7 +5892,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -5936,7 +5933,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -5977,7 +5974,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -6018,7 +6015,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -6059,7 +6056,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>4</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -6100,7 +6097,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>4</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6141,7 +6138,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>4</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -6182,7 +6179,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6223,7 +6220,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>4</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -6264,7 +6261,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>4</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -6305,7 +6302,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>4</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -6346,7 +6343,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>4</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -6387,7 +6384,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>4</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -6428,7 +6425,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>4</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -6469,7 +6466,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>4</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -6510,7 +6507,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>4</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -6551,7 +6548,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>1</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -6592,7 +6589,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>1</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -6633,7 +6630,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <v>1</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -6674,7 +6671,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <v>1</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -6715,7 +6712,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
+      <c r="A41" s="27">
         <v>1</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -6756,7 +6753,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33">
+      <c r="A42" s="32">
         <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -6797,7 +6794,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28">
+      <c r="A43" s="27">
         <v>1</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -6838,7 +6835,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <v>1</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -6879,7 +6876,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -6920,7 +6917,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <v>1</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -6961,7 +6958,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28">
+      <c r="A47" s="27">
         <v>1</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -7002,7 +6999,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28">
+      <c r="A48" s="27">
         <v>1</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -7043,7 +7040,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28">
+      <c r="A49" s="27">
         <v>1</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -7084,7 +7081,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28">
+      <c r="A50" s="27">
         <v>1</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -7125,7 +7122,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28">
+      <c r="A51" s="27">
         <v>1</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -7166,7 +7163,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <v>1</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -7207,7 +7204,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28">
+      <c r="A53" s="27">
         <v>1</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -7248,7 +7245,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <v>1</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -7289,7 +7286,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28">
+      <c r="A55" s="27">
         <v>1</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -7330,7 +7327,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28">
+      <c r="A56" s="27">
         <v>1</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -7371,7 +7368,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28">
+      <c r="A57" s="27">
         <v>1</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -7412,7 +7409,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29">
+      <c r="A58" s="28">
         <v>1</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -7453,7 +7450,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29">
+      <c r="A59" s="28">
         <v>1</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -7494,7 +7491,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
+      <c r="A60" s="28">
         <v>1</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -7535,7 +7532,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29">
+      <c r="A61" s="28">
         <v>1</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -7576,7 +7573,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30">
+      <c r="A62" s="29">
         <v>2</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -7617,7 +7614,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31">
+      <c r="A63" s="30">
         <v>2</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -7658,7 +7655,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+      <c r="A64" s="30">
         <v>2</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -7699,7 +7696,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>2</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -7740,7 +7737,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -7781,7 +7778,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>2</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -7822,7 +7819,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31">
+      <c r="A68" s="30">
         <v>2</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -7863,7 +7860,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
+      <c r="A69" s="30">
         <v>2</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -7904,7 +7901,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>2</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -7945,7 +7942,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <v>2</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -7986,7 +7983,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -8027,7 +8024,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <v>2</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -8068,7 +8065,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <v>2</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -8109,7 +8106,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <v>2</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -8150,7 +8147,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <v>2</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -8191,7 +8188,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <v>2</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -8232,7 +8229,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32">
+      <c r="A78" s="31">
         <v>2</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -8273,7 +8270,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32">
+      <c r="A79" s="31">
         <v>2</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -8314,7 +8311,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32">
+      <c r="A80" s="31">
         <v>2</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -8355,7 +8352,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34">
+      <c r="A81" s="33">
         <v>2</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -8396,7 +8393,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35">
+      <c r="A82" s="34">
         <v>2</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -8437,7 +8434,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34">
+      <c r="A83" s="33">
         <v>2</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -8478,7 +8475,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35">
+      <c r="A84" s="34">
         <v>2</v>
       </c>
       <c r="B84" s="16" t="s">
@@ -8519,7 +8516,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35">
+      <c r="A85" s="34">
         <v>2</v>
       </c>
       <c r="B85" s="16" t="s">
@@ -8560,7 +8557,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35">
+      <c r="A86" s="34">
         <v>2</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -8601,7 +8598,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="36">
+      <c r="A87" s="35">
         <v>2</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -8642,7 +8639,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32">
+      <c r="A88" s="31">
         <v>2</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -8683,7 +8680,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="36">
+      <c r="A89" s="35">
         <v>2</v>
       </c>
       <c r="B89" s="20" t="s">
@@ -8724,7 +8721,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="36">
+      <c r="A90" s="35">
         <v>2</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -8765,7 +8762,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="36">
+      <c r="A91" s="35">
         <v>2</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -8806,7 +8803,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="36">
+      <c r="A92" s="35">
         <v>2</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -8847,7 +8844,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="37">
+      <c r="A93" s="36">
         <v>2</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -8888,7 +8885,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37">
+      <c r="A94" s="36">
         <v>2</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -8929,7 +8926,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33">
+      <c r="A95" s="32">
         <v>2</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -8970,7 +8967,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37">
+      <c r="A96" s="36">
         <v>2</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -9011,7 +9008,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37">
+      <c r="A97" s="36">
         <v>2</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -9052,7 +9049,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="36">
+      <c r="A98" s="35">
         <v>2</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -9093,7 +9090,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32">
+      <c r="A99" s="31">
         <v>2</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -9134,7 +9131,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="36">
+      <c r="A100" s="35">
         <v>2</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -9175,7 +9172,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36">
+      <c r="A101" s="35">
         <v>2</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -9216,7 +9213,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="36">
+      <c r="A102" s="35">
         <v>2</v>
       </c>
       <c r="B102" s="20" t="s">
@@ -9257,7 +9254,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36">
+      <c r="A103" s="35">
         <v>2</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -9298,7 +9295,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="35">
+      <c r="A104" s="34">
         <v>2</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -9339,7 +9336,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35">
+      <c r="A105" s="34">
         <v>2</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -9380,7 +9377,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35">
+      <c r="A106" s="34">
         <v>2</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -9421,7 +9418,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="34">
+      <c r="A107" s="33">
         <v>2</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -9462,7 +9459,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="35">
+      <c r="A108" s="34">
         <v>2</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -9503,7 +9500,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35">
+      <c r="A109" s="34">
         <v>2</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -9544,7 +9541,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35">
+      <c r="A110" s="34">
         <v>2</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -9585,7 +9582,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35">
+      <c r="A111" s="34">
         <v>2</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -9626,7 +9623,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="34">
+      <c r="A112" s="33">
         <v>2</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -9667,7 +9664,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35">
+      <c r="A113" s="34">
         <v>2</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -9708,7 +9705,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35">
+      <c r="A114" s="34">
         <v>2</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -9749,7 +9746,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38">
+      <c r="A115" s="37">
         <v>2</v>
       </c>
       <c r="B115" s="20" t="s">
@@ -9790,7 +9787,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39">
+      <c r="A116" s="38">
         <v>5</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -9831,7 +9828,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="40">
+      <c r="A117" s="39">
         <v>5</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -9872,7 +9869,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="40">
+      <c r="A118" s="39">
         <v>5</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -9913,7 +9910,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39">
+      <c r="A119" s="38">
         <v>5</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -9954,7 +9951,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39">
+      <c r="A120" s="38">
         <v>5</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -9995,7 +9992,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="40">
+      <c r="A121" s="39">
         <v>5</v>
       </c>
       <c r="B121" s="20" t="s">
@@ -10036,7 +10033,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35">
+      <c r="A122" s="34">
         <v>2</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -10077,7 +10074,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="35">
+      <c r="A123" s="34">
         <v>2</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -10118,7 +10115,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="35">
+      <c r="A124" s="34">
         <v>2</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -10159,7 +10156,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="35">
+      <c r="A125" s="34">
         <v>2</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -10200,7 +10197,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="35">
+      <c r="A126" s="34">
         <v>2</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -10241,7 +10238,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="35">
+      <c r="A127" s="34">
         <v>2</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -10282,7 +10279,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="35">
+      <c r="A128" s="34">
         <v>2</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -10323,7 +10320,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="35">
+      <c r="A129" s="34">
         <v>2</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -10364,7 +10361,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="34">
+      <c r="A130" s="33">
         <v>2</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -10405,7 +10402,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="35">
+      <c r="A131" s="34">
         <v>2</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -10446,7 +10443,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="34">
+      <c r="A132" s="33">
         <v>2</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -10487,7 +10484,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="34">
+      <c r="A133" s="33">
         <v>2</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -10528,7 +10525,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="35">
+      <c r="A134" s="34">
         <v>2</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -10569,7 +10566,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="35">
+      <c r="A135" s="34">
         <v>2</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -10610,7 +10607,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="41">
+      <c r="A136" s="40">
         <v>2</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -10651,7 +10648,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="42">
+      <c r="A137" s="41">
         <v>2</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -10692,7 +10689,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="34">
+      <c r="A138" s="33">
         <v>2</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -10733,7 +10730,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33">
+      <c r="A139" s="32">
         <v>5</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -10774,7 +10771,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33">
+      <c r="A140" s="32">
         <v>5</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -10815,7 +10812,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="37">
+      <c r="A141" s="36">
         <v>5</v>
       </c>
       <c r="B141" s="20" t="s">
@@ -10856,7 +10853,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="37">
+      <c r="A142" s="36">
         <v>5</v>
       </c>
       <c r="B142" s="20" t="s">
@@ -10897,7 +10894,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37">
+      <c r="A143" s="36">
         <v>5</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -10938,7 +10935,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="33">
+      <c r="A144" s="32">
         <v>5</v>
       </c>
       <c r="B144" s="20" t="s">
@@ -10979,7 +10976,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="37">
+      <c r="A145" s="36">
         <v>5</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -11020,7 +11017,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="37">
+      <c r="A146" s="36">
         <v>5</v>
       </c>
       <c r="B146" s="20" t="s">
@@ -11061,7 +11058,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="37">
+      <c r="A147" s="36">
         <v>5</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -11102,7 +11099,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="33">
+      <c r="A148" s="32">
         <v>5</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -11143,7 +11140,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="37">
+      <c r="A149" s="36">
         <v>5</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -11184,7 +11181,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="37">
+      <c r="A150" s="36">
         <v>5</v>
       </c>
       <c r="B150" s="20" t="s">
@@ -11225,7 +11222,7 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="37">
+      <c r="A151" s="36">
         <v>5</v>
       </c>
       <c r="B151" s="20" t="s">
@@ -11266,7 +11263,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="37">
+      <c r="A152" s="36">
         <v>5</v>
       </c>
       <c r="B152" s="20" t="s">
@@ -11307,7 +11304,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="37">
+      <c r="A153" s="36">
         <v>5</v>
       </c>
       <c r="B153" s="20" t="s">
@@ -11348,7 +11345,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="37">
+      <c r="A154" s="36">
         <v>5</v>
       </c>
       <c r="B154" s="20" t="s">
@@ -11389,7 +11386,7 @@
       </c>
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="33">
+      <c r="A155" s="32">
         <v>5</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -11430,7 +11427,7 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="37">
+      <c r="A156" s="36">
         <v>5</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -11471,7 +11468,7 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="37">
+      <c r="A157" s="36">
         <v>5</v>
       </c>
       <c r="B157" s="16" t="s">
@@ -11512,7 +11509,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="37">
+      <c r="A158" s="36">
         <v>5</v>
       </c>
       <c r="B158" s="16" t="s">
@@ -11553,7 +11550,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="37">
+      <c r="A159" s="36">
         <v>5</v>
       </c>
       <c r="B159" s="16" t="s">
@@ -11594,7 +11591,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="37">
+      <c r="A160" s="36">
         <v>5</v>
       </c>
       <c r="B160" s="16" t="s">
@@ -11635,7 +11632,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="37">
+      <c r="A161" s="36">
         <v>5</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -11676,7 +11673,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="37">
+      <c r="A162" s="36">
         <v>5</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -11717,7 +11714,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="37">
+      <c r="A163" s="36">
         <v>5</v>
       </c>
       <c r="B163" s="16" t="s">
@@ -11758,7 +11755,7 @@
       </c>
     </row>
     <row r="164" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="33">
+      <c r="A164" s="32">
         <v>5</v>
       </c>
       <c r="B164" s="16" t="s">
@@ -11799,7 +11796,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="37">
+      <c r="A165" s="36">
         <v>5</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -11840,7 +11837,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="33">
+      <c r="A166" s="32">
         <v>5</v>
       </c>
       <c r="B166" s="16" t="s">
@@ -11881,7 +11878,7 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="37">
+      <c r="A167" s="36">
         <v>5</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -11922,7 +11919,7 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="37">
+      <c r="A168" s="36">
         <v>5</v>
       </c>
       <c r="B168" s="16" t="s">
@@ -11963,7 +11960,7 @@
       </c>
     </row>
     <row r="169" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="37">
+      <c r="A169" s="36">
         <v>5</v>
       </c>
       <c r="B169" s="16" t="s">
@@ -12004,7 +12001,7 @@
       </c>
     </row>
     <row r="170" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="37">
+      <c r="A170" s="36">
         <v>5</v>
       </c>
       <c r="B170" s="16" t="s">
@@ -12045,7 +12042,7 @@
       </c>
     </row>
     <row r="171" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="33">
+      <c r="A171" s="32">
         <v>1</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -12086,7 +12083,7 @@
       </c>
     </row>
     <row r="172" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="33">
+      <c r="A172" s="32">
         <v>5</v>
       </c>
       <c r="B172" s="16" t="s">
@@ -12127,7 +12124,7 @@
       </c>
     </row>
     <row r="173" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="36">
+      <c r="A173" s="35">
         <v>8</v>
       </c>
       <c r="B173" s="16" t="s">
@@ -12168,7 +12165,7 @@
       </c>
     </row>
     <row r="174" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="36">
+      <c r="A174" s="35">
         <v>8</v>
       </c>
       <c r="B174" s="16" t="s">
@@ -12209,7 +12206,7 @@
       </c>
     </row>
     <row r="175" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="36">
+      <c r="A175" s="35">
         <v>8</v>
       </c>
       <c r="B175" s="16" t="s">
@@ -12250,7 +12247,7 @@
       </c>
     </row>
     <row r="176" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="36">
+      <c r="A176" s="35">
         <v>8</v>
       </c>
       <c r="B176" s="16" t="s">
@@ -12291,7 +12288,7 @@
       </c>
     </row>
     <row r="177" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="36">
+      <c r="A177" s="35">
         <v>8</v>
       </c>
       <c r="B177" s="16" t="s">
@@ -12332,7 +12329,7 @@
       </c>
     </row>
     <row r="178" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="36">
+      <c r="A178" s="35">
         <v>8</v>
       </c>
       <c r="B178" s="16" t="s">
@@ -12373,7 +12370,7 @@
       </c>
     </row>
     <row r="179" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="36">
+      <c r="A179" s="35">
         <v>8</v>
       </c>
       <c r="B179" s="16" t="s">
@@ -12414,7 +12411,7 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="36">
+      <c r="A180" s="35">
         <v>8</v>
       </c>
       <c r="B180" s="16" t="s">
@@ -12455,7 +12452,7 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="36">
+      <c r="A181" s="35">
         <v>8</v>
       </c>
       <c r="B181" s="16" t="s">
@@ -12496,7 +12493,7 @@
       </c>
     </row>
     <row r="182" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="36">
+      <c r="A182" s="35">
         <v>8</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -12537,7 +12534,7 @@
       </c>
     </row>
     <row r="183" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="36">
+      <c r="A183" s="35">
         <v>8</v>
       </c>
       <c r="B183" s="16" t="s">
@@ -12578,7 +12575,7 @@
       </c>
     </row>
     <row r="184" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="36">
+      <c r="A184" s="35">
         <v>8</v>
       </c>
       <c r="B184" s="16" t="s">
@@ -12619,7 +12616,7 @@
       </c>
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="36">
+      <c r="A185" s="35">
         <v>8</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -12660,7 +12657,7 @@
       </c>
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="45">
+      <c r="A186" s="44">
         <v>8</v>
       </c>
       <c r="B186" s="16" t="s">
@@ -12701,7 +12698,7 @@
       </c>
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="36">
+      <c r="A187" s="35">
         <v>8</v>
       </c>
       <c r="B187" s="16" t="s">
@@ -12742,7 +12739,7 @@
       </c>
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="36">
+      <c r="A188" s="35">
         <v>8</v>
       </c>
       <c r="B188" s="16" t="s">
@@ -12783,7 +12780,7 @@
       </c>
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="36">
+      <c r="A189" s="35">
         <v>8</v>
       </c>
       <c r="B189" s="16" t="s">
@@ -12824,7 +12821,7 @@
       </c>
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="36">
+      <c r="A190" s="35">
         <v>8</v>
       </c>
       <c r="B190" s="16" t="s">
@@ -12865,7 +12862,7 @@
       </c>
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="36">
+      <c r="A191" s="35">
         <v>8</v>
       </c>
       <c r="B191" s="16" t="s">
@@ -12906,7 +12903,7 @@
       </c>
     </row>
     <row r="192" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="36">
+      <c r="A192" s="35">
         <v>8</v>
       </c>
       <c r="B192" s="16" t="s">
@@ -12947,7 +12944,7 @@
       </c>
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="36">
+      <c r="A193" s="35">
         <v>8</v>
       </c>
       <c r="B193" s="16" t="s">
@@ -12988,7 +12985,7 @@
       </c>
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="36">
+      <c r="A194" s="35">
         <v>8</v>
       </c>
       <c r="B194" s="16" t="s">
@@ -13029,7 +13026,7 @@
       </c>
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="36">
+      <c r="A195" s="35">
         <v>8</v>
       </c>
       <c r="B195" s="16" t="s">
@@ -13070,7 +13067,7 @@
       </c>
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="36">
+      <c r="A196" s="35">
         <v>8</v>
       </c>
       <c r="B196" s="16" t="s">
@@ -13111,7 +13108,7 @@
       </c>
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="36">
+      <c r="A197" s="35">
         <v>8</v>
       </c>
       <c r="B197" s="16" t="s">
@@ -13152,7 +13149,7 @@
       </c>
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="36">
+      <c r="A198" s="35">
         <v>8</v>
       </c>
       <c r="B198" s="16" t="s">
@@ -13193,7 +13190,7 @@
       </c>
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="36">
+      <c r="A199" s="35">
         <v>8</v>
       </c>
       <c r="B199" s="16" t="s">
@@ -13234,7 +13231,7 @@
       </c>
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="36">
+      <c r="A200" s="35">
         <v>8</v>
       </c>
       <c r="B200" s="16" t="s">
@@ -13275,7 +13272,7 @@
       </c>
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="36">
+      <c r="A201" s="35">
         <v>8</v>
       </c>
       <c r="B201" s="16" t="s">
@@ -13316,7 +13313,7 @@
       </c>
     </row>
     <row r="202" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="36">
+      <c r="A202" s="35">
         <v>8</v>
       </c>
       <c r="B202" s="16" t="s">
@@ -13357,7 +13354,7 @@
       </c>
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="36">
+      <c r="A203" s="35">
         <v>8</v>
       </c>
       <c r="B203" s="16" t="s">
@@ -13398,7 +13395,7 @@
       </c>
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="36">
+      <c r="A204" s="35">
         <v>8</v>
       </c>
       <c r="B204" s="16" t="s">
@@ -13439,7 +13436,7 @@
       </c>
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="35">
+      <c r="A205" s="34">
         <v>8</v>
       </c>
       <c r="B205" s="16" t="s">
@@ -13480,7 +13477,7 @@
       </c>
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="36">
+      <c r="A206" s="35">
         <v>8</v>
       </c>
       <c r="B206" s="16" t="s">
@@ -13521,7 +13518,7 @@
       </c>
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="36">
+      <c r="A207" s="35">
         <v>8</v>
       </c>
       <c r="B207" s="16" t="s">
@@ -13562,7 +13559,7 @@
       </c>
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="36">
+      <c r="A208" s="35">
         <v>8</v>
       </c>
       <c r="B208" s="16" t="s">
@@ -13603,7 +13600,7 @@
       </c>
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="36">
+      <c r="A209" s="35">
         <v>8</v>
       </c>
       <c r="B209" s="16" t="s">
@@ -13644,7 +13641,7 @@
       </c>
     </row>
     <row r="210" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="36">
+      <c r="A210" s="35">
         <v>8</v>
       </c>
       <c r="B210" s="16" t="s">
@@ -13685,7 +13682,7 @@
       </c>
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="36">
+      <c r="A211" s="35">
         <v>8</v>
       </c>
       <c r="B211" s="16" t="s">
@@ -13726,7 +13723,7 @@
       </c>
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="36">
+      <c r="A212" s="35">
         <v>8</v>
       </c>
       <c r="B212" s="16" t="s">
@@ -13767,7 +13764,7 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="36">
+      <c r="A213" s="35">
         <v>8</v>
       </c>
       <c r="B213" s="16" t="s">
@@ -13808,7 +13805,7 @@
       </c>
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="36">
+      <c r="A214" s="35">
         <v>8</v>
       </c>
       <c r="B214" s="16" t="s">
@@ -13849,7 +13846,7 @@
       </c>
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="35">
+      <c r="A215" s="34">
         <v>8</v>
       </c>
       <c r="B215" s="16" t="s">
@@ -13890,7 +13887,7 @@
       </c>
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="36">
+      <c r="A216" s="35">
         <v>8</v>
       </c>
       <c r="B216" s="16" t="s">
@@ -13931,7 +13928,7 @@
       </c>
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="36">
+      <c r="A217" s="35">
         <v>8</v>
       </c>
       <c r="B217" s="16" t="s">
@@ -13972,7 +13969,7 @@
       </c>
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="36">
+      <c r="A218" s="35">
         <v>8</v>
       </c>
       <c r="B218" s="16" t="s">
@@ -14013,7 +14010,7 @@
       </c>
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="36">
+      <c r="A219" s="35">
         <v>8</v>
       </c>
       <c r="B219" s="16" t="s">
@@ -14054,7 +14051,7 @@
       </c>
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="36">
+      <c r="A220" s="35">
         <v>8</v>
       </c>
       <c r="B220" s="16" t="s">
@@ -14095,7 +14092,7 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="36">
+      <c r="A221" s="35">
         <v>8</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -14136,7 +14133,7 @@
       </c>
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="36">
+      <c r="A222" s="35">
         <v>8</v>
       </c>
       <c r="B222" s="16" t="s">
@@ -14177,7 +14174,7 @@
       </c>
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="36">
+      <c r="A223" s="35">
         <v>8</v>
       </c>
       <c r="B223" s="16" t="s">
@@ -14218,7 +14215,7 @@
       </c>
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="36">
+      <c r="A224" s="35">
         <v>8</v>
       </c>
       <c r="B224" s="16" t="s">
@@ -14259,7 +14256,7 @@
       </c>
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="36">
+      <c r="A225" s="35">
         <v>8</v>
       </c>
       <c r="B225" s="16" t="s">
@@ -14300,7 +14297,7 @@
       </c>
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="36">
+      <c r="A226" s="35">
         <v>8</v>
       </c>
       <c r="B226" s="16" t="s">
@@ -14341,7 +14338,7 @@
       </c>
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="36">
+      <c r="A227" s="35">
         <v>8</v>
       </c>
       <c r="B227" s="16" t="s">
@@ -14382,7 +14379,7 @@
       </c>
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="36">
+      <c r="A228" s="35">
         <v>8</v>
       </c>
       <c r="B228" s="16" t="s">
@@ -14423,7 +14420,7 @@
       </c>
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="36">
+      <c r="A229" s="35">
         <v>8</v>
       </c>
       <c r="B229" s="16" t="s">
@@ -14464,7 +14461,7 @@
       </c>
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="32">
+      <c r="A230" s="31">
         <v>8</v>
       </c>
       <c r="B230" s="16" t="s">
@@ -14505,7 +14502,7 @@
       </c>
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="36">
+      <c r="A231" s="35">
         <v>8</v>
       </c>
       <c r="B231" s="16" t="s">
@@ -14546,7 +14543,7 @@
       </c>
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="36">
+      <c r="A232" s="35">
         <v>8</v>
       </c>
       <c r="B232" s="16" t="s">
@@ -14587,7 +14584,7 @@
       </c>
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="36">
+      <c r="A233" s="35">
         <v>8</v>
       </c>
       <c r="B233" s="16" t="s">
@@ -14628,7 +14625,7 @@
       </c>
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="36">
+      <c r="A234" s="35">
         <v>8</v>
       </c>
       <c r="B234" s="16" t="s">
@@ -14669,7 +14666,7 @@
       </c>
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="36">
+      <c r="A235" s="35">
         <v>8</v>
       </c>
       <c r="B235" s="16" t="s">
@@ -14710,7 +14707,7 @@
       </c>
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="36">
+      <c r="A236" s="35">
         <v>8</v>
       </c>
       <c r="B236" s="16" t="s">
@@ -14751,7 +14748,7 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="36">
+      <c r="A237" s="35">
         <v>8</v>
       </c>
       <c r="B237" s="16" t="s">
@@ -14792,7 +14789,7 @@
       </c>
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="32">
+      <c r="A238" s="31">
         <v>8</v>
       </c>
       <c r="B238" s="16" t="s">
@@ -14833,7 +14830,7 @@
       </c>
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="36">
+      <c r="A239" s="35">
         <v>8</v>
       </c>
       <c r="B239" s="16" t="s">
@@ -14874,7 +14871,7 @@
       </c>
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="36">
+      <c r="A240" s="35">
         <v>8</v>
       </c>
       <c r="B240" s="16" t="s">
@@ -14915,7 +14912,7 @@
       </c>
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="36">
+      <c r="A241" s="35">
         <v>8</v>
       </c>
       <c r="B241" s="16" t="s">
@@ -14956,7 +14953,7 @@
       </c>
     </row>
     <row r="242" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="36">
+      <c r="A242" s="35">
         <v>8</v>
       </c>
       <c r="B242" s="16" t="s">
@@ -14997,7 +14994,7 @@
       </c>
     </row>
     <row r="243" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="36">
+      <c r="A243" s="35">
         <v>8</v>
       </c>
       <c r="B243" s="16" t="s">
@@ -15038,7 +15035,7 @@
       </c>
     </row>
     <row r="244" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="36">
+      <c r="A244" s="35">
         <v>8</v>
       </c>
       <c r="B244" s="16" t="s">
@@ -15079,7 +15076,7 @@
       </c>
     </row>
     <row r="245" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="36">
+      <c r="A245" s="35">
         <v>8</v>
       </c>
       <c r="B245" s="16" t="s">
@@ -15120,7 +15117,7 @@
       </c>
     </row>
     <row r="246" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="36">
+      <c r="A246" s="35">
         <v>8</v>
       </c>
       <c r="B246" s="16" t="s">
@@ -15161,7 +15158,7 @@
       </c>
     </row>
     <row r="247" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="37">
+      <c r="A247" s="36">
         <v>8</v>
       </c>
       <c r="B247" s="16" t="s">
@@ -15202,7 +15199,7 @@
       </c>
     </row>
     <row r="248" spans="1:13" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="36">
+      <c r="A248" s="35">
         <v>8</v>
       </c>
       <c r="B248" s="16" t="s">
@@ -15220,7 +15217,7 @@
       <c r="F248" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G248" s="27" t="s">
+      <c r="G248" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H248" s="18" t="s">
@@ -15243,7 +15240,7 @@
       </c>
     </row>
     <row r="249" spans="1:13" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="32">
+      <c r="A249" s="31">
         <v>8</v>
       </c>
       <c r="B249" s="16" t="s">
@@ -15261,7 +15258,7 @@
       <c r="F249" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G249" s="27" t="s">
+      <c r="G249" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H249" s="18" t="s">
@@ -15284,7 +15281,7 @@
       </c>
     </row>
     <row r="250" spans="1:13" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="32">
+      <c r="A250" s="31">
         <v>8</v>
       </c>
       <c r="B250" s="16" t="s">
@@ -15302,7 +15299,7 @@
       <c r="F250" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G250" s="27" t="s">
+      <c r="G250" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H250" s="18" t="s">
@@ -15325,7 +15322,7 @@
       </c>
     </row>
     <row r="251" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="36">
+      <c r="A251" s="35">
         <v>8</v>
       </c>
       <c r="B251" s="16" t="s">
@@ -15366,7 +15363,7 @@
       </c>
     </row>
     <row r="252" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="36">
+      <c r="A252" s="35">
         <v>8</v>
       </c>
       <c r="B252" s="16" t="s">
@@ -15407,7 +15404,7 @@
       </c>
     </row>
     <row r="253" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="36">
+      <c r="A253" s="35">
         <v>8</v>
       </c>
       <c r="B253" s="16" t="s">
@@ -15448,7 +15445,7 @@
       </c>
     </row>
     <row r="254" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="36">
+      <c r="A254" s="35">
         <v>8</v>
       </c>
       <c r="B254" s="16" t="s">
@@ -15489,7 +15486,7 @@
       </c>
     </row>
     <row r="255" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="36">
+      <c r="A255" s="35">
         <v>8</v>
       </c>
       <c r="B255" s="16" t="s">
@@ -15530,7 +15527,7 @@
       </c>
     </row>
     <row r="256" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="36">
+      <c r="A256" s="35">
         <v>8</v>
       </c>
       <c r="B256" s="16" t="s">
@@ -15571,7 +15568,7 @@
       </c>
     </row>
     <row r="257" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="36">
+      <c r="A257" s="35">
         <v>8</v>
       </c>
       <c r="B257" s="16" t="s">
@@ -15612,7 +15609,7 @@
       </c>
     </row>
     <row r="258" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="36">
+      <c r="A258" s="35">
         <v>8</v>
       </c>
       <c r="B258" s="16" t="s">
@@ -15653,7 +15650,7 @@
       </c>
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="36">
+      <c r="A259" s="35">
         <v>8</v>
       </c>
       <c r="B259" s="16" t="s">
@@ -15694,7 +15691,7 @@
       </c>
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="36">
+      <c r="A260" s="35">
         <v>8</v>
       </c>
       <c r="B260" s="16" t="s">
@@ -15735,7 +15732,7 @@
       </c>
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="36">
+      <c r="A261" s="35">
         <v>8</v>
       </c>
       <c r="B261" s="16" t="s">
@@ -15776,7 +15773,7 @@
       </c>
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="36">
+      <c r="A262" s="35">
         <v>8</v>
       </c>
       <c r="B262" s="16" t="s">
@@ -15817,7 +15814,7 @@
       </c>
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="36">
+      <c r="A263" s="35">
         <v>8</v>
       </c>
       <c r="B263" s="16" t="s">
@@ -15858,7 +15855,7 @@
       </c>
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="36">
+      <c r="A264" s="35">
         <v>8</v>
       </c>
       <c r="B264" s="16" t="s">
@@ -15899,7 +15896,7 @@
       </c>
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="36">
+      <c r="A265" s="35">
         <v>8</v>
       </c>
       <c r="B265" s="16" t="s">
@@ -15940,7 +15937,7 @@
       </c>
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="36">
+      <c r="A266" s="35">
         <v>8</v>
       </c>
       <c r="B266" s="16" t="s">
@@ -15981,7 +15978,7 @@
       </c>
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="36">
+      <c r="A267" s="35">
         <v>8</v>
       </c>
       <c r="B267" s="16" t="s">
@@ -16022,7 +16019,7 @@
       </c>
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="36">
+      <c r="A268" s="35">
         <v>8</v>
       </c>
       <c r="B268" s="16" t="s">
@@ -16063,7 +16060,7 @@
       </c>
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="36">
+      <c r="A269" s="35">
         <v>8</v>
       </c>
       <c r="B269" s="16" t="s">
@@ -16104,7 +16101,7 @@
       </c>
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="32">
+      <c r="A270" s="31">
         <v>8</v>
       </c>
       <c r="B270" s="16" t="s">
@@ -16145,7 +16142,7 @@
       </c>
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="36">
+      <c r="A271" s="35">
         <v>8</v>
       </c>
       <c r="B271" s="16" t="s">
@@ -16186,7 +16183,7 @@
       </c>
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="36">
+      <c r="A272" s="35">
         <v>8</v>
       </c>
       <c r="B272" s="16" t="s">
@@ -16227,7 +16224,7 @@
       </c>
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="36">
+      <c r="A273" s="35">
         <v>8</v>
       </c>
       <c r="B273" s="16" t="s">
@@ -16268,7 +16265,7 @@
       </c>
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="36">
+      <c r="A274" s="35">
         <v>8</v>
       </c>
       <c r="B274" s="16" t="s">
@@ -16309,7 +16306,7 @@
       </c>
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="36">
+      <c r="A275" s="35">
         <v>8</v>
       </c>
       <c r="B275" s="16" t="s">
@@ -16350,7 +16347,7 @@
       </c>
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="36">
+      <c r="A276" s="35">
         <v>8</v>
       </c>
       <c r="B276" s="16" t="s">
@@ -16391,7 +16388,7 @@
       </c>
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="36">
+      <c r="A277" s="35">
         <v>8</v>
       </c>
       <c r="B277" s="16" t="s">
@@ -16432,7 +16429,7 @@
       </c>
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="37">
+      <c r="A278" s="36">
         <v>8</v>
       </c>
       <c r="B278" s="16" t="s">
@@ -16473,7 +16470,7 @@
       </c>
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="37">
+      <c r="A279" s="36">
         <v>8</v>
       </c>
       <c r="B279" s="16" t="s">
@@ -16514,7 +16511,7 @@
       </c>
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="37">
+      <c r="A280" s="36">
         <v>8</v>
       </c>
       <c r="B280" s="16" t="s">
@@ -16555,7 +16552,7 @@
       </c>
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="37">
+      <c r="A281" s="36">
         <v>8</v>
       </c>
       <c r="B281" s="16" t="s">
@@ -16596,7 +16593,7 @@
       </c>
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="37">
+      <c r="A282" s="36">
         <v>8</v>
       </c>
       <c r="B282" s="16" t="s">
@@ -16637,7 +16634,7 @@
       </c>
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="37">
+      <c r="A283" s="36">
         <v>8</v>
       </c>
       <c r="B283" s="16" t="s">
@@ -16678,7 +16675,7 @@
       </c>
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="37">
+      <c r="A284" s="36">
         <v>8</v>
       </c>
       <c r="B284" s="16" t="s">
@@ -16719,7 +16716,7 @@
       </c>
     </row>
     <row r="285" spans="1:13" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="37">
+      <c r="A285" s="36">
         <v>8</v>
       </c>
       <c r="B285" s="16" t="s">
@@ -16760,7 +16757,7 @@
       </c>
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="37">
+      <c r="A286" s="36">
         <v>8</v>
       </c>
       <c r="B286" s="16" t="s">
@@ -16801,7 +16798,7 @@
       </c>
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="37">
+      <c r="A287" s="36">
         <v>8</v>
       </c>
       <c r="B287" s="16" t="s">
@@ -16842,7 +16839,7 @@
       </c>
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="37">
+      <c r="A288" s="36">
         <v>8</v>
       </c>
       <c r="B288" s="16" t="s">
@@ -16883,7 +16880,7 @@
       </c>
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="37">
+      <c r="A289" s="36">
         <v>8</v>
       </c>
       <c r="B289" s="16" t="s">
@@ -16924,7 +16921,7 @@
       </c>
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="37">
+      <c r="A290" s="36">
         <v>8</v>
       </c>
       <c r="B290" s="16" t="s">
@@ -16965,7 +16962,7 @@
       </c>
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="37">
+      <c r="A291" s="36">
         <v>8</v>
       </c>
       <c r="B291" s="16" t="s">
@@ -17006,7 +17003,7 @@
       </c>
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="37">
+      <c r="A292" s="36">
         <v>8</v>
       </c>
       <c r="B292" s="16" t="s">
@@ -17047,7 +17044,7 @@
       </c>
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="37">
+      <c r="A293" s="36">
         <v>8</v>
       </c>
       <c r="B293" s="16" t="s">
@@ -17088,7 +17085,7 @@
       </c>
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="37">
+      <c r="A294" s="36">
         <v>8</v>
       </c>
       <c r="B294" s="16" t="s">
@@ -17129,7 +17126,7 @@
       </c>
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="37">
+      <c r="A295" s="36">
         <v>8</v>
       </c>
       <c r="B295" s="16" t="s">
@@ -17170,7 +17167,7 @@
       </c>
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="37">
+      <c r="A296" s="36">
         <v>8</v>
       </c>
       <c r="B296" s="16" t="s">
@@ -17211,7 +17208,7 @@
       </c>
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="46">
+      <c r="A297" s="45">
         <v>2</v>
       </c>
       <c r="B297" s="16" t="s">
@@ -17252,7 +17249,7 @@
       </c>
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="46">
+      <c r="A298" s="45">
         <v>2</v>
       </c>
       <c r="B298" s="16" t="s">
@@ -17293,7 +17290,7 @@
       </c>
     </row>
     <row r="299" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="46">
+      <c r="A299" s="45">
         <v>2</v>
       </c>
       <c r="B299" s="16" t="s">
@@ -17334,7 +17331,7 @@
       </c>
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="46">
+      <c r="A300" s="45">
         <v>2</v>
       </c>
       <c r="B300" s="16" t="s">
@@ -17375,7 +17372,7 @@
       </c>
     </row>
     <row r="301" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="46">
+      <c r="A301" s="45">
         <v>2</v>
       </c>
       <c r="B301" s="16" t="s">
@@ -17416,7 +17413,7 @@
       </c>
     </row>
     <row r="302" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="46">
+      <c r="A302" s="45">
         <v>2</v>
       </c>
       <c r="B302" s="16" t="s">
@@ -17457,7 +17454,7 @@
       </c>
     </row>
     <row r="303" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="46">
+      <c r="A303" s="45">
         <v>2</v>
       </c>
       <c r="B303" s="16" t="s">
@@ -17498,7 +17495,7 @@
       </c>
     </row>
     <row r="304" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="43">
+      <c r="A304" s="42">
         <v>2</v>
       </c>
       <c r="B304" s="16" t="s">
@@ -17539,7 +17536,7 @@
       </c>
     </row>
     <row r="305" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="46">
+      <c r="A305" s="45">
         <v>2</v>
       </c>
       <c r="B305" s="16" t="s">
@@ -17580,7 +17577,7 @@
       </c>
     </row>
     <row r="306" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="46">
+      <c r="A306" s="45">
         <v>2</v>
       </c>
       <c r="B306" s="16" t="s">
@@ -17621,7 +17618,7 @@
       </c>
     </row>
     <row r="307" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="46">
+      <c r="A307" s="45">
         <v>2</v>
       </c>
       <c r="B307" s="16" t="s">
@@ -17662,7 +17659,7 @@
       </c>
     </row>
     <row r="308" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="46">
+      <c r="A308" s="45">
         <v>2</v>
       </c>
       <c r="B308" s="16" t="s">
@@ -17703,7 +17700,7 @@
       </c>
     </row>
     <row r="309" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="46">
+      <c r="A309" s="45">
         <v>2</v>
       </c>
       <c r="B309" s="16" t="s">
@@ -17744,7 +17741,7 @@
       </c>
     </row>
     <row r="310" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="46">
+      <c r="A310" s="45">
         <v>2</v>
       </c>
       <c r="B310" s="16" t="s">
@@ -17785,7 +17782,7 @@
       </c>
     </row>
     <row r="311" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="46">
+      <c r="A311" s="45">
         <v>2</v>
       </c>
       <c r="B311" s="16" t="s">
@@ -17826,7 +17823,7 @@
       </c>
     </row>
     <row r="312" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="46">
+      <c r="A312" s="45">
         <v>2</v>
       </c>
       <c r="B312" s="16" t="s">
@@ -17867,7 +17864,7 @@
       </c>
     </row>
     <row r="313" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="47">
+      <c r="A313" s="46">
         <v>2</v>
       </c>
       <c r="B313" s="16" t="s">
@@ -17908,7 +17905,7 @@
       </c>
     </row>
     <row r="314" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="46">
+      <c r="A314" s="45">
         <v>2</v>
       </c>
       <c r="B314" s="16" t="s">
@@ -17949,7 +17946,7 @@
       </c>
     </row>
     <row r="315" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="46">
+      <c r="A315" s="45">
         <v>2</v>
       </c>
       <c r="B315" s="16" t="s">
@@ -17990,7 +17987,7 @@
       </c>
     </row>
     <row r="316" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="46">
+      <c r="A316" s="45">
         <v>2</v>
       </c>
       <c r="B316" s="16" t="s">
@@ -18031,7 +18028,7 @@
       </c>
     </row>
     <row r="317" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="46">
+      <c r="A317" s="45">
         <v>2</v>
       </c>
       <c r="B317" s="16" t="s">
@@ -18072,7 +18069,7 @@
       </c>
     </row>
     <row r="318" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="46">
+      <c r="A318" s="45">
         <v>2</v>
       </c>
       <c r="B318" s="16" t="s">
@@ -18113,7 +18110,7 @@
       </c>
     </row>
     <row r="319" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="46">
+      <c r="A319" s="45">
         <v>2</v>
       </c>
       <c r="B319" s="16" t="s">
@@ -18154,7 +18151,7 @@
       </c>
     </row>
     <row r="320" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="46">
+      <c r="A320" s="45">
         <v>2</v>
       </c>
       <c r="B320" s="16" t="s">
@@ -18195,7 +18192,7 @@
       </c>
     </row>
     <row r="321" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="46">
+      <c r="A321" s="45">
         <v>2</v>
       </c>
       <c r="B321" s="16" t="s">
@@ -18236,7 +18233,7 @@
       </c>
     </row>
     <row r="322" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="46">
+      <c r="A322" s="45">
         <v>2</v>
       </c>
       <c r="B322" s="16" t="s">
@@ -18277,7 +18274,7 @@
       </c>
     </row>
     <row r="323" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="46">
+      <c r="A323" s="45">
         <v>2</v>
       </c>
       <c r="B323" s="16" t="s">
@@ -18318,7 +18315,7 @@
       </c>
     </row>
     <row r="324" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="47">
+      <c r="A324" s="46">
         <v>2</v>
       </c>
       <c r="B324" s="16" t="s">
@@ -18359,7 +18356,7 @@
       </c>
     </row>
     <row r="325" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="47">
+      <c r="A325" s="46">
         <v>2</v>
       </c>
       <c r="B325" s="16" t="s">
@@ -18400,7 +18397,7 @@
       </c>
     </row>
     <row r="326" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="46">
+      <c r="A326" s="45">
         <v>2</v>
       </c>
       <c r="B326" s="16" t="s">
@@ -18441,7 +18438,7 @@
       </c>
     </row>
     <row r="327" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="46">
+      <c r="A327" s="45">
         <v>2</v>
       </c>
       <c r="B327" s="16" t="s">
@@ -18482,7 +18479,7 @@
       </c>
     </row>
     <row r="328" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="47">
+      <c r="A328" s="46">
         <v>2</v>
       </c>
       <c r="B328" s="16" t="s">
@@ -18523,7 +18520,7 @@
       </c>
     </row>
     <row r="329" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="46">
+      <c r="A329" s="45">
         <v>2</v>
       </c>
       <c r="B329" s="16" t="s">
@@ -18564,7 +18561,7 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="46">
+      <c r="A330" s="45">
         <v>2</v>
       </c>
       <c r="B330" s="16" t="s">
@@ -18605,7 +18602,7 @@
       </c>
     </row>
     <row r="331" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="46">
+      <c r="A331" s="45">
         <v>2</v>
       </c>
       <c r="B331" s="16" t="s">
@@ -18646,7 +18643,7 @@
       </c>
     </row>
     <row r="332" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="47">
+      <c r="A332" s="46">
         <v>2</v>
       </c>
       <c r="B332" s="16" t="s">
@@ -18687,7 +18684,7 @@
       </c>
     </row>
     <row r="333" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="46">
+      <c r="A333" s="45">
         <v>2</v>
       </c>
       <c r="B333" s="16" t="s">
@@ -18728,7 +18725,7 @@
       </c>
     </row>
     <row r="334" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="46">
+      <c r="A334" s="45">
         <v>2</v>
       </c>
       <c r="B334" s="16" t="s">
@@ -18769,7 +18766,7 @@
       </c>
     </row>
     <row r="335" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="43">
+      <c r="A335" s="42">
         <v>2</v>
       </c>
       <c r="B335" s="16" t="s">
@@ -18810,7 +18807,7 @@
       </c>
     </row>
     <row r="336" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="43">
+      <c r="A336" s="42">
         <v>2</v>
       </c>
       <c r="B336" s="16" t="s">
@@ -18851,7 +18848,7 @@
       </c>
     </row>
     <row r="337" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="43">
+      <c r="A337" s="42">
         <v>2</v>
       </c>
       <c r="B337" s="16" t="s">
@@ -18892,7 +18889,7 @@
       </c>
     </row>
     <row r="338" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="43">
+      <c r="A338" s="42">
         <v>2</v>
       </c>
       <c r="B338" s="16" t="s">
@@ -18933,7 +18930,7 @@
       </c>
     </row>
     <row r="339" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="43">
+      <c r="A339" s="42">
         <v>2</v>
       </c>
       <c r="B339" s="16" t="s">
@@ -18974,7 +18971,7 @@
       </c>
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="43">
+      <c r="A340" s="42">
         <v>2</v>
       </c>
       <c r="B340" s="16" t="s">
@@ -19015,7 +19012,7 @@
       </c>
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="43">
+      <c r="A341" s="42">
         <v>2</v>
       </c>
       <c r="B341" s="16" t="s">
@@ -19056,7 +19053,7 @@
       </c>
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="43">
+      <c r="A342" s="42">
         <v>2</v>
       </c>
       <c r="B342" s="16" t="s">
@@ -19097,7 +19094,7 @@
       </c>
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="43">
+      <c r="A343" s="42">
         <v>2</v>
       </c>
       <c r="B343" s="16" t="s">
@@ -19138,7 +19135,7 @@
       </c>
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="43">
+      <c r="A344" s="42">
         <v>2</v>
       </c>
       <c r="B344" s="16" t="s">
@@ -19179,7 +19176,7 @@
       </c>
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="43">
+      <c r="A345" s="42">
         <v>2</v>
       </c>
       <c r="B345" s="16" t="s">
@@ -19220,7 +19217,7 @@
       </c>
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="43">
+      <c r="A346" s="42">
         <v>2</v>
       </c>
       <c r="B346" s="16" t="s">
@@ -19261,7 +19258,7 @@
       </c>
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="43">
+      <c r="A347" s="42">
         <v>2</v>
       </c>
       <c r="B347" s="16" t="s">
@@ -19302,7 +19299,7 @@
       </c>
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="43">
+      <c r="A348" s="42">
         <v>2</v>
       </c>
       <c r="B348" s="16" t="s">
@@ -19343,7 +19340,7 @@
       </c>
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="43">
+      <c r="A349" s="42">
         <v>2</v>
       </c>
       <c r="B349" s="16" t="s">
@@ -19384,7 +19381,7 @@
       </c>
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="43">
+      <c r="A350" s="42">
         <v>2</v>
       </c>
       <c r="B350" s="16" t="s">
@@ -19425,7 +19422,7 @@
       </c>
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="43">
+      <c r="A351" s="42">
         <v>2</v>
       </c>
       <c r="B351" s="16" t="s">
@@ -19466,7 +19463,7 @@
       </c>
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="43">
+      <c r="A352" s="42">
         <v>2</v>
       </c>
       <c r="B352" s="16" t="s">
@@ -19507,7 +19504,7 @@
       </c>
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="43">
+      <c r="A353" s="42">
         <v>2</v>
       </c>
       <c r="B353" s="16" t="s">
@@ -19548,7 +19545,7 @@
       </c>
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="43">
+      <c r="A354" s="42">
         <v>2</v>
       </c>
       <c r="B354" s="16" t="s">
@@ -19589,7 +19586,7 @@
       </c>
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="43">
+      <c r="A355" s="42">
         <v>2</v>
       </c>
       <c r="B355" s="16" t="s">
@@ -19630,7 +19627,7 @@
       </c>
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="43">
+      <c r="A356" s="42">
         <v>2</v>
       </c>
       <c r="B356" s="16" t="s">
@@ -19671,7 +19668,7 @@
       </c>
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="43">
+      <c r="A357" s="42">
         <v>2</v>
       </c>
       <c r="B357" s="16" t="s">
@@ -19712,7 +19709,7 @@
       </c>
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="43">
+      <c r="A358" s="42">
         <v>2</v>
       </c>
       <c r="B358" s="16" t="s">
@@ -19753,7 +19750,7 @@
       </c>
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="43">
+      <c r="A359" s="42">
         <v>2</v>
       </c>
       <c r="B359" s="16" t="s">
@@ -19794,7 +19791,7 @@
       </c>
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="43">
+      <c r="A360" s="42">
         <v>2</v>
       </c>
       <c r="B360" s="16" t="s">
@@ -19835,7 +19832,7 @@
       </c>
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="43">
+      <c r="A361" s="42">
         <v>2</v>
       </c>
       <c r="B361" s="16" t="s">
@@ -19876,7 +19873,7 @@
       </c>
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="43">
+      <c r="A362" s="42">
         <v>2</v>
       </c>
       <c r="B362" s="16" t="s">
@@ -19917,7 +19914,7 @@
       </c>
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="43">
+      <c r="A363" s="42">
         <v>2</v>
       </c>
       <c r="B363" s="16" t="s">
@@ -19958,7 +19955,7 @@
       </c>
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="43">
+      <c r="A364" s="42">
         <v>2</v>
       </c>
       <c r="B364" s="16" t="s">
@@ -19999,7 +19996,7 @@
       </c>
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="43">
+      <c r="A365" s="42">
         <v>2</v>
       </c>
       <c r="B365" s="16" t="s">
@@ -20040,7 +20037,7 @@
       </c>
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="43">
+      <c r="A366" s="42">
         <v>2</v>
       </c>
       <c r="B366" s="16" t="s">
@@ -20081,7 +20078,7 @@
       </c>
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="43">
+      <c r="A367" s="42">
         <v>2</v>
       </c>
       <c r="B367" s="16" t="s">
@@ -20122,7 +20119,7 @@
       </c>
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="43">
+      <c r="A368" s="42">
         <v>2</v>
       </c>
       <c r="B368" s="16" t="s">
@@ -20163,7 +20160,7 @@
       </c>
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="43">
+      <c r="A369" s="42">
         <v>2</v>
       </c>
       <c r="B369" s="16" t="s">
@@ -20204,7 +20201,7 @@
       </c>
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="43">
+      <c r="A370" s="42">
         <v>2</v>
       </c>
       <c r="B370" s="16" t="s">
@@ -20245,7 +20242,7 @@
       </c>
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="43">
+      <c r="A371" s="42">
         <v>2</v>
       </c>
       <c r="B371" s="16" t="s">
@@ -20286,7 +20283,7 @@
       </c>
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="43">
+      <c r="A372" s="42">
         <v>2</v>
       </c>
       <c r="B372" s="16" t="s">
@@ -20327,7 +20324,7 @@
       </c>
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="43">
+      <c r="A373" s="42">
         <v>2</v>
       </c>
       <c r="B373" s="16" t="s">
@@ -20368,7 +20365,7 @@
       </c>
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="43">
+      <c r="A374" s="42">
         <v>2</v>
       </c>
       <c r="B374" s="16" t="s">
@@ -20409,7 +20406,7 @@
       </c>
     </row>
     <row r="375" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="43">
+      <c r="A375" s="42">
         <v>2</v>
       </c>
       <c r="B375" s="16" t="s">
@@ -20450,7 +20447,7 @@
       </c>
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="43">
+      <c r="A376" s="42">
         <v>2</v>
       </c>
       <c r="B376" s="16" t="s">
@@ -20491,7 +20488,7 @@
       </c>
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="43">
+      <c r="A377" s="42">
         <v>2</v>
       </c>
       <c r="B377" s="16" t="s">
@@ -20532,7 +20529,7 @@
       </c>
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="43">
+      <c r="A378" s="42">
         <v>2</v>
       </c>
       <c r="B378" s="16" t="s">
@@ -20573,7 +20570,7 @@
       </c>
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="43">
+      <c r="A379" s="42">
         <v>2</v>
       </c>
       <c r="B379" s="16" t="s">
@@ -20614,7 +20611,7 @@
       </c>
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="43">
+      <c r="A380" s="42">
         <v>2</v>
       </c>
       <c r="B380" s="16" t="s">
@@ -20655,7 +20652,7 @@
       </c>
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="43">
+      <c r="A381" s="42">
         <v>2</v>
       </c>
       <c r="B381" s="16" t="s">
@@ -20696,7 +20693,7 @@
       </c>
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="43">
+      <c r="A382" s="42">
         <v>2</v>
       </c>
       <c r="B382" s="16" t="s">
@@ -20737,7 +20734,7 @@
       </c>
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="43">
+      <c r="A383" s="42">
         <v>2</v>
       </c>
       <c r="B383" s="16" t="s">
@@ -20778,7 +20775,7 @@
       </c>
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="43">
+      <c r="A384" s="42">
         <v>2</v>
       </c>
       <c r="B384" s="16" t="s">
@@ -20819,7 +20816,7 @@
       </c>
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="43">
+      <c r="A385" s="42">
         <v>2</v>
       </c>
       <c r="B385" s="16" t="s">
@@ -20860,7 +20857,7 @@
       </c>
     </row>
     <row r="386" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="43">
+      <c r="A386" s="42">
         <v>2</v>
       </c>
       <c r="B386" s="16" t="s">
@@ -20901,7 +20898,7 @@
       </c>
     </row>
     <row r="387" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="43">
+      <c r="A387" s="42">
         <v>2</v>
       </c>
       <c r="B387" s="16" t="s">
@@ -20942,7 +20939,7 @@
       </c>
     </row>
     <row r="388" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="43">
+      <c r="A388" s="42">
         <v>2</v>
       </c>
       <c r="B388" s="16" t="s">
@@ -20983,7 +20980,7 @@
       </c>
     </row>
     <row r="389" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="43">
+      <c r="A389" s="42">
         <v>2</v>
       </c>
       <c r="B389" s="16" t="s">
@@ -21024,7 +21021,7 @@
       </c>
     </row>
     <row r="390" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="43">
+      <c r="A390" s="42">
         <v>2</v>
       </c>
       <c r="B390" s="16" t="s">
@@ -21065,7 +21062,7 @@
       </c>
     </row>
     <row r="391" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="43">
+      <c r="A391" s="42">
         <v>2</v>
       </c>
       <c r="B391" s="16" t="s">
@@ -21106,7 +21103,7 @@
       </c>
     </row>
     <row r="392" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="43">
+      <c r="A392" s="42">
         <v>2</v>
       </c>
       <c r="B392" s="16" t="s">
@@ -21147,7 +21144,7 @@
       </c>
     </row>
     <row r="393" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="43">
+      <c r="A393" s="42">
         <v>2</v>
       </c>
       <c r="B393" s="16" t="s">
@@ -21188,7 +21185,7 @@
       </c>
     </row>
     <row r="394" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="43">
+      <c r="A394" s="42">
         <v>2</v>
       </c>
       <c r="B394" s="16" t="s">
@@ -21229,7 +21226,7 @@
       </c>
     </row>
     <row r="395" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="43">
+      <c r="A395" s="42">
         <v>2</v>
       </c>
       <c r="B395" s="16" t="s">
@@ -21270,7 +21267,7 @@
       </c>
     </row>
     <row r="396" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="43">
+      <c r="A396" s="42">
         <v>2</v>
       </c>
       <c r="B396" s="16" t="s">
@@ -21311,7 +21308,7 @@
       </c>
     </row>
     <row r="397" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="43">
+      <c r="A397" s="42">
         <v>2</v>
       </c>
       <c r="B397" s="16" t="s">
@@ -21352,7 +21349,7 @@
       </c>
     </row>
     <row r="398" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="43">
+      <c r="A398" s="42">
         <v>2</v>
       </c>
       <c r="B398" s="16" t="s">
@@ -21393,7 +21390,7 @@
       </c>
     </row>
     <row r="399" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="43">
+      <c r="A399" s="42">
         <v>2</v>
       </c>
       <c r="B399" s="16" t="s">
@@ -21434,7 +21431,7 @@
       </c>
     </row>
     <row r="400" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="43">
+      <c r="A400" s="42">
         <v>2</v>
       </c>
       <c r="B400" s="16" t="s">
@@ -21475,7 +21472,7 @@
       </c>
     </row>
     <row r="401" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="43">
+      <c r="A401" s="42">
         <v>2</v>
       </c>
       <c r="B401" s="16" t="s">
@@ -21516,7 +21513,7 @@
       </c>
     </row>
     <row r="402" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="43">
+      <c r="A402" s="42">
         <v>2</v>
       </c>
       <c r="B402" s="16" t="s">
@@ -21557,7 +21554,7 @@
       </c>
     </row>
     <row r="403" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="43">
+      <c r="A403" s="42">
         <v>2</v>
       </c>
       <c r="B403" s="16" t="s">
@@ -21598,7 +21595,7 @@
       </c>
     </row>
     <row r="404" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="43">
+      <c r="A404" s="42">
         <v>2</v>
       </c>
       <c r="B404" s="16" t="s">
@@ -21639,7 +21636,7 @@
       </c>
     </row>
     <row r="405" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="43">
+      <c r="A405" s="42">
         <v>2</v>
       </c>
       <c r="B405" s="16" t="s">
@@ -21680,7 +21677,7 @@
       </c>
     </row>
     <row r="406" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="43">
+      <c r="A406" s="42">
         <v>2</v>
       </c>
       <c r="B406" s="16" t="s">
@@ -21721,7 +21718,7 @@
       </c>
     </row>
     <row r="407" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="43">
+      <c r="A407" s="42">
         <v>2</v>
       </c>
       <c r="B407" s="16" t="s">
@@ -21762,7 +21759,7 @@
       </c>
     </row>
     <row r="408" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="43">
+      <c r="A408" s="42">
         <v>2</v>
       </c>
       <c r="B408" s="16" t="s">
@@ -21803,7 +21800,7 @@
       </c>
     </row>
     <row r="409" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="43">
+      <c r="A409" s="42">
         <v>2</v>
       </c>
       <c r="B409" s="16" t="s">
@@ -21844,7 +21841,7 @@
       </c>
     </row>
     <row r="410" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="43">
+      <c r="A410" s="42">
         <v>2</v>
       </c>
       <c r="B410" s="16" t="s">
@@ -21885,7 +21882,7 @@
       </c>
     </row>
     <row r="411" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="43">
+      <c r="A411" s="42">
         <v>2</v>
       </c>
       <c r="B411" s="16" t="s">
@@ -21926,7 +21923,7 @@
       </c>
     </row>
     <row r="412" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="43">
+      <c r="A412" s="42">
         <v>2</v>
       </c>
       <c r="B412" s="16" t="s">
@@ -21967,7 +21964,7 @@
       </c>
     </row>
     <row r="413" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="43">
+      <c r="A413" s="42">
         <v>2</v>
       </c>
       <c r="B413" s="16" t="s">
@@ -22008,7 +22005,7 @@
       </c>
     </row>
     <row r="414" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="43">
+      <c r="A414" s="42">
         <v>2</v>
       </c>
       <c r="B414" s="16" t="s">
@@ -22049,7 +22046,7 @@
       </c>
     </row>
     <row r="415" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="43">
+      <c r="A415" s="42">
         <v>2</v>
       </c>
       <c r="B415" s="16" t="s">
@@ -22090,7 +22087,7 @@
       </c>
     </row>
     <row r="416" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="43">
+      <c r="A416" s="42">
         <v>2</v>
       </c>
       <c r="B416" s="16" t="s">
@@ -22131,7 +22128,7 @@
       </c>
     </row>
     <row r="417" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="43">
+      <c r="A417" s="42">
         <v>2</v>
       </c>
       <c r="B417" s="16" t="s">
@@ -22172,7 +22169,7 @@
       </c>
     </row>
     <row r="418" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="43">
+      <c r="A418" s="42">
         <v>2</v>
       </c>
       <c r="B418" s="16" t="s">
@@ -22213,7 +22210,7 @@
       </c>
     </row>
     <row r="419" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="43">
+      <c r="A419" s="42">
         <v>2</v>
       </c>
       <c r="B419" s="16" t="s">
@@ -22254,7 +22251,7 @@
       </c>
     </row>
     <row r="420" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="43">
+      <c r="A420" s="42">
         <v>2</v>
       </c>
       <c r="B420" s="16" t="s">
@@ -22295,7 +22292,7 @@
       </c>
     </row>
     <row r="421" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="43">
+      <c r="A421" s="42">
         <v>2</v>
       </c>
       <c r="B421" s="16" t="s">
@@ -22336,7 +22333,7 @@
       </c>
     </row>
     <row r="422" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="43">
+      <c r="A422" s="42">
         <v>2</v>
       </c>
       <c r="B422" s="16" t="s">
@@ -22377,7 +22374,7 @@
       </c>
     </row>
     <row r="423" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="43">
+      <c r="A423" s="42">
         <v>2</v>
       </c>
       <c r="B423" s="16" t="s">
@@ -22418,7 +22415,7 @@
       </c>
     </row>
     <row r="424" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="43">
+      <c r="A424" s="42">
         <v>2</v>
       </c>
       <c r="B424" s="16" t="s">
@@ -22459,7 +22456,7 @@
       </c>
     </row>
     <row r="425" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="43">
+      <c r="A425" s="42">
         <v>2</v>
       </c>
       <c r="B425" s="16" t="s">
@@ -22500,7 +22497,7 @@
       </c>
     </row>
     <row r="426" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="43">
+      <c r="A426" s="42">
         <v>2</v>
       </c>
       <c r="B426" s="16" t="s">
@@ -22541,7 +22538,7 @@
       </c>
     </row>
     <row r="427" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="43">
+      <c r="A427" s="42">
         <v>2</v>
       </c>
       <c r="B427" s="16" t="s">
@@ -22582,7 +22579,7 @@
       </c>
     </row>
     <row r="428" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="43">
+      <c r="A428" s="42">
         <v>2</v>
       </c>
       <c r="B428" s="16" t="s">
@@ -22623,7 +22620,7 @@
       </c>
     </row>
     <row r="429" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="39">
+      <c r="A429" s="38">
         <v>2</v>
       </c>
       <c r="B429" s="16" t="s">
@@ -22664,7 +22661,7 @@
       </c>
     </row>
     <row r="430" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="35">
+      <c r="A430" s="34">
         <v>2</v>
       </c>
       <c r="B430" s="16" t="s">
@@ -22705,7 +22702,7 @@
       </c>
     </row>
     <row r="431" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="48">
+      <c r="A431" s="47">
         <v>2</v>
       </c>
       <c r="B431" s="16" t="s">
@@ -22746,7 +22743,7 @@
       </c>
     </row>
     <row r="432" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="35">
+      <c r="A432" s="34">
         <v>2</v>
       </c>
       <c r="B432" s="16" t="s">
@@ -22787,7 +22784,7 @@
       </c>
     </row>
     <row r="433" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="35">
+      <c r="A433" s="34">
         <v>2</v>
       </c>
       <c r="B433" s="16" t="s">
@@ -22828,7 +22825,7 @@
       </c>
     </row>
     <row r="434" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="35">
+      <c r="A434" s="34">
         <v>2</v>
       </c>
       <c r="B434" s="16" t="s">
@@ -22869,7 +22866,7 @@
       </c>
     </row>
     <row r="435" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="48">
+      <c r="A435" s="47">
         <v>2</v>
       </c>
       <c r="B435" s="16" t="s">
@@ -22910,7 +22907,7 @@
       </c>
     </row>
     <row r="436" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="35">
+      <c r="A436" s="34">
         <v>2</v>
       </c>
       <c r="B436" s="16" t="s">
@@ -22951,7 +22948,7 @@
       </c>
     </row>
     <row r="437" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="35">
+      <c r="A437" s="34">
         <v>2</v>
       </c>
       <c r="B437" s="16" t="s">
@@ -22992,7 +22989,7 @@
       </c>
     </row>
     <row r="438" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="35">
+      <c r="A438" s="34">
         <v>2</v>
       </c>
       <c r="B438" s="16" t="s">
@@ -23033,7 +23030,7 @@
       </c>
     </row>
     <row r="439" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="35">
+      <c r="A439" s="34">
         <v>2</v>
       </c>
       <c r="B439" s="16" t="s">
@@ -23074,7 +23071,7 @@
       </c>
     </row>
     <row r="440" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="35" t="s">
+      <c r="A440" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B440" s="16" t="s">
@@ -23115,7 +23112,7 @@
       </c>
     </row>
     <row r="441" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="35">
+      <c r="A441" s="34">
         <v>2</v>
       </c>
       <c r="B441" s="16" t="s">
@@ -23156,7 +23153,7 @@
       </c>
     </row>
     <row r="442" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="35">
+      <c r="A442" s="34">
         <v>2</v>
       </c>
       <c r="B442" s="16" t="s">
@@ -23197,7 +23194,7 @@
       </c>
     </row>
     <row r="443" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="35">
+      <c r="A443" s="34">
         <v>2</v>
       </c>
       <c r="B443" s="16" t="s">
@@ -23238,7 +23235,7 @@
       </c>
     </row>
     <row r="444" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="48">
+      <c r="A444" s="47">
         <v>2</v>
       </c>
       <c r="B444" s="16" t="s">
@@ -23279,7 +23276,7 @@
       </c>
     </row>
     <row r="445" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="35" t="s">
+      <c r="A445" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B445" s="16" t="s">
@@ -23320,7 +23317,7 @@
       </c>
     </row>
     <row r="446" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="35">
+      <c r="A446" s="34">
         <v>2</v>
       </c>
       <c r="B446" s="16" t="s">
@@ -23361,7 +23358,7 @@
       </c>
     </row>
     <row r="447" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="35">
+      <c r="A447" s="34">
         <v>2</v>
       </c>
       <c r="B447" s="16" t="s">
@@ -23402,7 +23399,7 @@
       </c>
     </row>
     <row r="448" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="48">
+      <c r="A448" s="47">
         <v>2</v>
       </c>
       <c r="B448" s="16" t="s">
@@ -23443,7 +23440,7 @@
       </c>
     </row>
     <row r="449" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="35" t="s">
+      <c r="A449" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B449" s="16" t="s">
@@ -23484,7 +23481,7 @@
       </c>
     </row>
     <row r="450" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="35">
+      <c r="A450" s="34">
         <v>2</v>
       </c>
       <c r="B450" s="16" t="s">
@@ -23525,7 +23522,7 @@
       </c>
     </row>
     <row r="451" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="35">
+      <c r="A451" s="34">
         <v>2</v>
       </c>
       <c r="B451" s="16" t="s">
@@ -23566,7 +23563,7 @@
       </c>
     </row>
     <row r="452" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="48">
+      <c r="A452" s="47">
         <v>2</v>
       </c>
       <c r="B452" s="16" t="s">
@@ -23607,7 +23604,7 @@
       </c>
     </row>
     <row r="453" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="35" t="s">
+      <c r="A453" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B453" s="16" t="s">
@@ -23648,7 +23645,7 @@
       </c>
     </row>
     <row r="454" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="35">
+      <c r="A454" s="34">
         <v>2</v>
       </c>
       <c r="B454" s="16" t="s">
@@ -23689,7 +23686,7 @@
       </c>
     </row>
     <row r="455" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="35">
+      <c r="A455" s="34">
         <v>2</v>
       </c>
       <c r="B455" s="16" t="s">
@@ -23730,7 +23727,7 @@
       </c>
     </row>
     <row r="456" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="35">
+      <c r="A456" s="34">
         <v>2</v>
       </c>
       <c r="B456" s="16" t="s">
@@ -23771,7 +23768,7 @@
       </c>
     </row>
     <row r="457" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="35">
+      <c r="A457" s="34">
         <v>2</v>
       </c>
       <c r="B457" s="16" t="s">
@@ -23812,7 +23809,7 @@
       </c>
     </row>
     <row r="458" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="35" t="s">
+      <c r="A458" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B458" s="16" t="s">
@@ -23853,7 +23850,7 @@
       </c>
     </row>
     <row r="459" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="35">
+      <c r="A459" s="34">
         <v>2</v>
       </c>
       <c r="B459" s="16" t="s">
@@ -23894,7 +23891,7 @@
       </c>
     </row>
     <row r="460" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="35">
+      <c r="A460" s="34">
         <v>2</v>
       </c>
       <c r="B460" s="16" t="s">
@@ -23935,7 +23932,7 @@
       </c>
     </row>
     <row r="461" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="35" t="s">
+      <c r="A461" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B461" s="16" t="s">
@@ -23976,7 +23973,7 @@
       </c>
     </row>
     <row r="462" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="35">
+      <c r="A462" s="34">
         <v>2</v>
       </c>
       <c r="B462" s="16" t="s">
@@ -24017,7 +24014,7 @@
       </c>
     </row>
     <row r="463" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="35">
+      <c r="A463" s="34">
         <v>2</v>
       </c>
       <c r="B463" s="16" t="s">
@@ -24058,7 +24055,7 @@
       </c>
     </row>
     <row r="464" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="35" t="s">
+      <c r="A464" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B464" s="16" t="s">
@@ -24099,7 +24096,7 @@
       </c>
     </row>
     <row r="465" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="35">
+      <c r="A465" s="34">
         <v>2</v>
       </c>
       <c r="B465" s="16" t="s">
@@ -24140,7 +24137,7 @@
       </c>
     </row>
     <row r="466" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="35" t="s">
+      <c r="A466" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B466" s="16" t="s">
@@ -24181,7 +24178,7 @@
       </c>
     </row>
     <row r="467" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="35">
+      <c r="A467" s="34">
         <v>2</v>
       </c>
       <c r="B467" s="16" t="s">
@@ -24222,7 +24219,7 @@
       </c>
     </row>
     <row r="468" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="35" t="s">
+      <c r="A468" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B468" s="16" t="s">
@@ -24263,7 +24260,7 @@
       </c>
     </row>
     <row r="469" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="35">
+      <c r="A469" s="34">
         <v>2</v>
       </c>
       <c r="B469" s="16" t="s">
@@ -24304,7 +24301,7 @@
       </c>
     </row>
     <row r="470" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="35">
+      <c r="A470" s="34">
         <v>4</v>
       </c>
       <c r="B470" s="16" t="s">
@@ -24345,7 +24342,7 @@
       </c>
     </row>
     <row r="471" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="35">
+      <c r="A471" s="34">
         <v>4</v>
       </c>
       <c r="B471" s="16" t="s">
@@ -24386,7 +24383,7 @@
       </c>
     </row>
     <row r="472" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="35" t="s">
+      <c r="A472" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B472" s="16" t="s">
@@ -24427,7 +24424,7 @@
       </c>
     </row>
     <row r="473" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="48">
+      <c r="A473" s="47">
         <v>2</v>
       </c>
       <c r="B473" s="16" t="s">
@@ -24468,7 +24465,7 @@
       </c>
     </row>
     <row r="474" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="35" t="s">
+      <c r="A474" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B474" s="16" t="s">
@@ -24509,7 +24506,7 @@
       </c>
     </row>
     <row r="475" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="35" t="s">
+      <c r="A475" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B475" s="16" t="s">
@@ -24550,7 +24547,7 @@
       </c>
     </row>
     <row r="476" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="35" t="s">
+      <c r="A476" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B476" s="16" t="s">
@@ -24591,7 +24588,7 @@
       </c>
     </row>
     <row r="477" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="35" t="s">
+      <c r="A477" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B477" s="16" t="s">
@@ -24632,7 +24629,7 @@
       </c>
     </row>
     <row r="478" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="35">
+      <c r="A478" s="34">
         <v>8</v>
       </c>
       <c r="B478" s="16" t="s">
@@ -24673,7 +24670,7 @@
       </c>
     </row>
     <row r="479" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="35">
+      <c r="A479" s="34">
         <v>8</v>
       </c>
       <c r="B479" s="16" t="s">
@@ -24714,7 +24711,7 @@
       </c>
     </row>
     <row r="480" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="35">
+      <c r="A480" s="34">
         <v>8</v>
       </c>
       <c r="B480" s="16" t="s">
@@ -24755,7 +24752,7 @@
       </c>
     </row>
     <row r="481" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="35">
+      <c r="A481" s="34">
         <v>8</v>
       </c>
       <c r="B481" s="16" t="s">
@@ -24796,7 +24793,7 @@
       </c>
     </row>
     <row r="482" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="35">
+      <c r="A482" s="34">
         <v>8</v>
       </c>
       <c r="B482" s="16" t="s">
@@ -24837,7 +24834,7 @@
       </c>
     </row>
     <row r="483" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="35">
+      <c r="A483" s="34">
         <v>8</v>
       </c>
       <c r="B483" s="16" t="s">
@@ -24878,7 +24875,7 @@
       </c>
     </row>
     <row r="484" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="35">
+      <c r="A484" s="34">
         <v>8</v>
       </c>
       <c r="B484" s="16" t="s">
@@ -24919,7 +24916,7 @@
       </c>
     </row>
     <row r="485" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="35">
+      <c r="A485" s="34">
         <v>8</v>
       </c>
       <c r="B485" s="16" t="s">
@@ -24960,7 +24957,7 @@
       </c>
     </row>
     <row r="486" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="35">
+      <c r="A486" s="34">
         <v>8</v>
       </c>
       <c r="B486" s="16" t="s">
@@ -25001,7 +24998,7 @@
       </c>
     </row>
     <row r="487" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="35">
+      <c r="A487" s="34">
         <v>8</v>
       </c>
       <c r="B487" s="16" t="s">
@@ -25042,7 +25039,7 @@
       </c>
     </row>
     <row r="488" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="35">
+      <c r="A488" s="34">
         <v>8</v>
       </c>
       <c r="B488" s="16" t="s">
@@ -25083,7 +25080,7 @@
       </c>
     </row>
     <row r="489" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="35">
+      <c r="A489" s="34">
         <v>8</v>
       </c>
       <c r="B489" s="16" t="s">
@@ -25124,7 +25121,7 @@
       </c>
     </row>
     <row r="490" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="35">
+      <c r="A490" s="34">
         <v>8</v>
       </c>
       <c r="B490" s="16" t="s">
@@ -25165,7 +25162,7 @@
       </c>
     </row>
     <row r="491" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="35">
+      <c r="A491" s="34">
         <v>8</v>
       </c>
       <c r="B491" s="16" t="s">
@@ -25206,7 +25203,7 @@
       </c>
     </row>
     <row r="492" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="35">
+      <c r="A492" s="34">
         <v>8</v>
       </c>
       <c r="B492" s="16" t="s">
@@ -25247,7 +25244,7 @@
       </c>
     </row>
     <row r="493" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="35">
+      <c r="A493" s="34">
         <v>8</v>
       </c>
       <c r="B493" s="16" t="s">
@@ -25288,7 +25285,7 @@
       </c>
     </row>
     <row r="494" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="35">
+      <c r="A494" s="34">
         <v>8</v>
       </c>
       <c r="B494" s="16" t="s">
@@ -25329,7 +25326,7 @@
       </c>
     </row>
     <row r="495" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="35">
+      <c r="A495" s="34">
         <v>8</v>
       </c>
       <c r="B495" s="16" t="s">
@@ -25370,7 +25367,7 @@
       </c>
     </row>
     <row r="496" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="39">
+      <c r="A496" s="38">
         <v>1</v>
       </c>
       <c r="B496" s="16" t="s">
@@ -25411,7 +25408,7 @@
       </c>
     </row>
     <row r="497" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="35">
+      <c r="A497" s="34">
         <v>8</v>
       </c>
       <c r="B497" s="16" t="s">
@@ -25452,7 +25449,7 @@
       </c>
     </row>
     <row r="498" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="35">
+      <c r="A498" s="34">
         <v>8</v>
       </c>
       <c r="B498" s="16" t="s">
@@ -25493,7 +25490,7 @@
       </c>
     </row>
     <row r="499" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="35">
+      <c r="A499" s="34">
         <v>8</v>
       </c>
       <c r="B499" s="16" t="s">
@@ -25534,7 +25531,7 @@
       </c>
     </row>
     <row r="500" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="35">
+      <c r="A500" s="34">
         <v>8</v>
       </c>
       <c r="B500" s="16" t="s">
@@ -25575,7 +25572,7 @@
       </c>
     </row>
     <row r="501" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="35">
+      <c r="A501" s="34">
         <v>8</v>
       </c>
       <c r="B501" s="16" t="s">
@@ -25616,7 +25613,7 @@
       </c>
     </row>
     <row r="502" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="35">
+      <c r="A502" s="34">
         <v>8</v>
       </c>
       <c r="B502" s="16" t="s">
@@ -25657,7 +25654,7 @@
       </c>
     </row>
     <row r="503" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="35">
+      <c r="A503" s="34">
         <v>8</v>
       </c>
       <c r="B503" s="16" t="s">
@@ -25698,7 +25695,7 @@
       </c>
     </row>
     <row r="504" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="35">
+      <c r="A504" s="34">
         <v>8</v>
       </c>
       <c r="B504" s="16" t="s">
@@ -25739,7 +25736,7 @@
       </c>
     </row>
     <row r="505" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="26">
+      <c r="A505" s="34">
         <v>8</v>
       </c>
       <c r="B505" s="16" t="s">
@@ -25780,7 +25777,7 @@
       </c>
     </row>
     <row r="506" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="20">
+      <c r="A506" s="38">
         <v>1</v>
       </c>
       <c r="B506" s="16" t="s">
@@ -25821,7 +25818,7 @@
       </c>
     </row>
     <row r="507" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="26">
+      <c r="A507" s="34">
         <v>8</v>
       </c>
       <c r="B507" s="16" t="s">
@@ -25862,7 +25859,7 @@
       </c>
     </row>
     <row r="508" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="26">
+      <c r="A508" s="34">
         <v>8</v>
       </c>
       <c r="B508" s="16" t="s">
@@ -25903,7 +25900,7 @@
       </c>
     </row>
     <row r="509" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="26">
+      <c r="A509" s="34">
         <v>8</v>
       </c>
       <c r="B509" s="16" t="s">
@@ -25944,7 +25941,7 @@
       </c>
     </row>
     <row r="510" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="26">
+      <c r="A510" s="34">
         <v>8</v>
       </c>
       <c r="B510" s="16" t="s">
@@ -25985,7 +25982,7 @@
       </c>
     </row>
     <row r="511" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="26">
+      <c r="A511" s="34">
         <v>8</v>
       </c>
       <c r="B511" s="16" t="s">
@@ -26026,7 +26023,7 @@
       </c>
     </row>
     <row r="512" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="26">
+      <c r="A512" s="34">
         <v>8</v>
       </c>
       <c r="B512" s="16" t="s">
@@ -26067,7 +26064,7 @@
       </c>
     </row>
     <row r="513" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="26">
+      <c r="A513" s="34">
         <v>8</v>
       </c>
       <c r="B513" s="16" t="s">
@@ -26108,7 +26105,7 @@
       </c>
     </row>
     <row r="514" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="26">
+      <c r="A514" s="34">
         <v>8</v>
       </c>
       <c r="B514" s="16" t="s">
@@ -26149,7 +26146,7 @@
       </c>
     </row>
     <row r="515" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="26">
+      <c r="A515" s="34">
         <v>8</v>
       </c>
       <c r="B515" s="16" t="s">
@@ -26190,7 +26187,7 @@
       </c>
     </row>
     <row r="516" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="26">
+      <c r="A516" s="34">
         <v>8</v>
       </c>
       <c r="B516" s="16" t="s">
@@ -26231,7 +26228,7 @@
       </c>
     </row>
     <row r="517" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="26">
+      <c r="A517" s="34">
         <v>8</v>
       </c>
       <c r="B517" s="16" t="s">
@@ -26272,7 +26269,7 @@
       </c>
     </row>
     <row r="518" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="26">
+      <c r="A518" s="34">
         <v>8</v>
       </c>
       <c r="B518" s="16" t="s">
@@ -26313,7 +26310,7 @@
       </c>
     </row>
     <row r="519" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="26">
+      <c r="A519" s="34">
         <v>3</v>
       </c>
       <c r="B519" s="16" t="s">
@@ -26354,7 +26351,7 @@
       </c>
     </row>
     <row r="520" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="26">
+      <c r="A520" s="34">
         <v>3</v>
       </c>
       <c r="B520" s="16" t="s">
@@ -26395,7 +26392,7 @@
       </c>
     </row>
     <row r="521" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="20">
+      <c r="A521" s="38">
         <v>8</v>
       </c>
       <c r="B521" s="16" t="s">
@@ -26436,7 +26433,7 @@
       </c>
     </row>
     <row r="522" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="20">
+      <c r="A522" s="38">
         <v>8</v>
       </c>
       <c r="B522" s="16" t="s">
@@ -26477,7 +26474,7 @@
       </c>
     </row>
     <row r="523" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="20">
+      <c r="A523" s="38">
         <v>8</v>
       </c>
       <c r="B523" s="16" t="s">
@@ -26518,7 +26515,7 @@
       </c>
     </row>
     <row r="524" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="20">
+      <c r="A524" s="38">
         <v>8</v>
       </c>
       <c r="B524" s="16" t="s">
@@ -26559,7 +26556,7 @@
       </c>
     </row>
     <row r="525" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="20">
+      <c r="A525" s="38">
         <v>8</v>
       </c>
       <c r="B525" s="16" t="s">
@@ -26600,7 +26597,7 @@
       </c>
     </row>
     <row r="526" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="20">
+      <c r="A526" s="38">
         <v>8</v>
       </c>
       <c r="B526" s="16" t="s">
@@ -26641,7 +26638,7 @@
       </c>
     </row>
     <row r="527" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="20">
+      <c r="A527" s="38">
         <v>8</v>
       </c>
       <c r="B527" s="16" t="s">
@@ -26682,7 +26679,7 @@
       </c>
     </row>
     <row r="528" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="20">
+      <c r="A528" s="38">
         <v>8</v>
       </c>
       <c r="B528" s="16" t="s">
@@ -26723,7 +26720,7 @@
       </c>
     </row>
     <row r="529" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="20">
+      <c r="A529" s="38">
         <v>8</v>
       </c>
       <c r="B529" s="16" t="s">
@@ -26764,7 +26761,7 @@
       </c>
     </row>
     <row r="530" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="20">
+      <c r="A530" s="38">
         <v>8</v>
       </c>
       <c r="B530" s="16" t="s">
@@ -26805,7 +26802,7 @@
       </c>
     </row>
     <row r="531" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="20">
+      <c r="A531" s="38">
         <v>8</v>
       </c>
       <c r="B531" s="16" t="s">
@@ -26846,7 +26843,7 @@
       </c>
     </row>
     <row r="532" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="20">
+      <c r="A532" s="38">
         <v>8</v>
       </c>
       <c r="B532" s="16" t="s">
@@ -26887,7 +26884,7 @@
       </c>
     </row>
     <row r="533" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="20">
+      <c r="A533" s="38">
         <v>8</v>
       </c>
       <c r="B533" s="16" t="s">
@@ -26928,7 +26925,7 @@
       </c>
     </row>
     <row r="534" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="20">
+      <c r="A534" s="38">
         <v>8</v>
       </c>
       <c r="B534" s="16" t="s">
@@ -26969,7 +26966,7 @@
       </c>
     </row>
     <row r="535" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="20">
+      <c r="A535" s="38">
         <v>8</v>
       </c>
       <c r="B535" s="16" t="s">
@@ -27010,7 +27007,7 @@
       </c>
     </row>
     <row r="536" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="20">
+      <c r="A536" s="38">
         <v>8</v>
       </c>
       <c r="B536" s="16" t="s">
@@ -27051,7 +27048,7 @@
       </c>
     </row>
     <row r="537" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="20">
+      <c r="A537" s="38">
         <v>8</v>
       </c>
       <c r="B537" s="16" t="s">
@@ -27092,7 +27089,7 @@
       </c>
     </row>
     <row r="538" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="20">
+      <c r="A538" s="38">
         <v>8</v>
       </c>
       <c r="B538" s="16" t="s">
@@ -27133,7 +27130,7 @@
       </c>
     </row>
     <row r="539" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="20">
+      <c r="A539" s="38">
         <v>8</v>
       </c>
       <c r="B539" s="16" t="s">
@@ -27174,7 +27171,7 @@
       </c>
     </row>
     <row r="540" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="20">
+      <c r="A540" s="38">
         <v>8</v>
       </c>
       <c r="B540" s="16" t="s">
@@ -27215,7 +27212,7 @@
       </c>
     </row>
     <row r="541" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="20">
+      <c r="A541" s="38">
         <v>8</v>
       </c>
       <c r="B541" s="16" t="s">
@@ -27256,7 +27253,7 @@
       </c>
     </row>
     <row r="542" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="20">
+      <c r="A542" s="38">
         <v>8</v>
       </c>
       <c r="B542" s="16" t="s">
@@ -27297,7 +27294,7 @@
       </c>
     </row>
     <row r="543" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A543" s="20">
+      <c r="A543" s="38">
         <v>8</v>
       </c>
       <c r="B543" s="16" t="s">
@@ -27338,7 +27335,7 @@
       </c>
     </row>
     <row r="544" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="20">
+      <c r="A544" s="38">
         <v>8</v>
       </c>
       <c r="B544" s="16" t="s">
@@ -27379,7 +27376,7 @@
       </c>
     </row>
     <row r="545" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="20">
+      <c r="A545" s="38">
         <v>8</v>
       </c>
       <c r="B545" s="16" t="s">
@@ -27420,7 +27417,7 @@
       </c>
     </row>
     <row r="546" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="20">
+      <c r="A546" s="38">
         <v>8</v>
       </c>
       <c r="B546" s="16" t="s">
@@ -27461,7 +27458,7 @@
       </c>
     </row>
     <row r="547" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="20">
+      <c r="A547" s="38">
         <v>8</v>
       </c>
       <c r="B547" s="16" t="s">
@@ -27502,7 +27499,7 @@
       </c>
     </row>
     <row r="548" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="20">
+      <c r="A548" s="38">
         <v>8</v>
       </c>
       <c r="B548" s="16" t="s">
@@ -27543,7 +27540,7 @@
       </c>
     </row>
     <row r="549" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="20">
+      <c r="A549" s="38">
         <v>8</v>
       </c>
       <c r="B549" s="16" t="s">
@@ -27584,7 +27581,7 @@
       </c>
     </row>
     <row r="550" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="20">
+      <c r="A550" s="38">
         <v>8</v>
       </c>
       <c r="B550" s="16" t="s">
@@ -28045,10 +28042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="6" t="s">
         <v>61</v>
       </c>

--- a/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD\validatie_matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC27D17-9789-4419-9C4A-F1E6B86AF1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC565E05-BF90-433C-8C00-D329C67FAD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5056,8 +5056,8 @@
   <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A543" sqref="A543:A550"/>
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A530" sqref="A530:XFD533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
